--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3043494.051272847</v>
+        <v>3041117.424325483</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>107.6395654435478</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.2636416850871</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.526109607584</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202789</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>73.68654716602727</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866083</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.781160222249448</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.45885325319664</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432473</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>55.05309123532178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.32075901072738</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.5971804138451</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1686991936193</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,13 +1768,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.483705355054</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>165.1436917124527</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>92.87435055577284</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.30088041042183</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>56.49518623012952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>31.66396365647125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784673</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.3764982651491</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>50.17139158339562</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3901,10 +3901,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>108.3764982651491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>135.5795121770519</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.713578732508</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.751061792096</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>861.4853631853455</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>475.6971105871012</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4364,16 +4364,16 @@
         <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.313418796629</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.313418796629</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4407,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.556931114678</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451.6438489729782</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>451.6438489729782</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>301.5272095606424</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>301.5272095606424</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>301.5272095606424</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4516,22 +4516,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>861.2818647012352</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X4" t="n">
-        <v>633.2923138032179</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>633.2923138032179</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>861.3216348137582</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>861.3216348137582</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>503.0559362070077</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="E5" t="n">
-        <v>503.0559362070077</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="F5" t="n">
-        <v>496.1104354578043</v>
+        <v>62.91113280331015</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137582</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310611</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>932.4978103100992</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1295.759829269319</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1683.044957866264</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>196.9593607670912</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>570.452659242627</v>
+        <v>896.0145465323088</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056664</v>
+        <v>606.5973764953483</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764901</v>
+        <v>378.6078255973309</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764901</v>
+        <v>378.6078255973309</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>809.2519436594666</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>440.2894267190549</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>440.2894267190549</v>
+        <v>826.0776793172993</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>440.289426719055</v>
       </c>
       <c r="F8" t="n">
         <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800306</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400153</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>1195.851783723588</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605186</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>398.5991786999833</v>
+        <v>168.0116152688567</v>
       </c>
       <c r="C10" t="n">
-        <v>367.9721493962183</v>
+        <v>168.0116152688567</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962183</v>
+        <v>168.0116152688567</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>168.0116152688567</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>168.0116152688567</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312189</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>825.1371474485134</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671836</v>
+        <v>570.4526592426265</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302231</v>
+        <v>570.4526592426265</v>
       </c>
       <c r="X10" t="n">
-        <v>580.2476435302231</v>
+        <v>570.4526592426265</v>
       </c>
       <c r="Y10" t="n">
-        <v>580.2476435302231</v>
+        <v>349.6600800990964</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2299.457522348532</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2532.719182723414</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.022157454266</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.2295783107356</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,19 +5829,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,13 +5978,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6081,7 +6081,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.6425904082687</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
         <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239596</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2206.395003844405</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6929,52 +6929,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7032,10 +7032,10 @@
         <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2396.284910263699</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2213.430075918604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2213.430075918604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1924.354849262801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.7594328861248</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.751134705686</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>21.18099370047497</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>138.9393975111054</v>
+        <v>186.5911984019058</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>62.35543909864957</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.131767663158371</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>86.99395161137528</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>55.74112246243952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.5310997715155</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>92.12028678808284</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>15.00954930701842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.2389747530633</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.20385512672606</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44677382459273</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711286</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365059</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365058</v>
@@ -26341,19 +26341,19 @@
         <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316251</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707394</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707421</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707354</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707365</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707369</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707394</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707442</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707381</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.7784627487</v>
+        <v>-641713.7784627482</v>
       </c>
       <c r="C6" t="n">
-        <v>473038.0051131709</v>
+        <v>473038.0051131716</v>
       </c>
       <c r="D6" t="n">
-        <v>473038.0051131713</v>
+        <v>473038.0051131714</v>
       </c>
       <c r="E6" t="n">
-        <v>70569.21379134523</v>
+        <v>70534.47586590896</v>
       </c>
       <c r="F6" t="n">
-        <v>578054.6554158911</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="G6" t="n">
-        <v>578054.6554158913</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="H6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="I6" t="n">
-        <v>578054.655415891</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="J6" t="n">
-        <v>410449.4776059088</v>
+        <v>410414.7396804732</v>
       </c>
       <c r="K6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904558</v>
       </c>
       <c r="L6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="M6" t="n">
-        <v>445447.3616869645</v>
+        <v>445412.6237615286</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.6554158911</v>
+        <v>578019.9174904552</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.6554158911</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="P6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904557</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>299.2364802981637</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.4674589933819</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>65.78049043722017</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670092</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>337.8611556069267</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362547</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.0508199596879</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.7879678454312</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446968</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.1848474207318</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.9260620879004</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.70941963095913</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>166.2270851128133</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32801,10 +32801,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>567.7870775946151</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>491.597732526532</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>575.5951359912046</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,10 +34454,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34787,19 +34787,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985599</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>270.8605228240072</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091734</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O6" t="n">
-        <v>474.3640795072284</v>
+        <v>522.0158803980286</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>436.6197581489566</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>631.6436438346176</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>20.54758114884936</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>425.1908331501707</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>349.0014880820875</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>433.4611020691863</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,10 +38102,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
